--- a/Test/MC_Ssf/T1/Sensors_data_1000029.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000029.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.09629165487418623</v>
+        <v>0.730047218778984</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05742350163923134</v>
+        <v>0.01715335933165687</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3968056291799436</v>
+        <v>0.2040765887159364</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9266851785892508</v>
+        <v>0.9516222691350372</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003953355511501082</v>
+        <v>0.002608672643112723</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.419413372147574e-06</v>
+        <v>3.226932960842532e-07</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9969367354023533</v>
+        <v>0.9943180471554021</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001098625874453351</v>
+        <v>0.0002037806468724507</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02363119350353204</v>
+        <v>-0.001210422259470878</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5509600640885902</v>
+        <v>0.4176907632176308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02043499847515336</v>
+        <v>0.02649984425452764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6431256675912731</v>
+        <v>0.7240563281823218</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8303186702094912</v>
+        <v>0.7930481767249713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007481175506989014</v>
+        <v>0.009124415239574964</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0003580687927353665</v>
+        <v>-0.0005004677606592622</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.06218853901943167</v>
+        <v>-0.03500555749835699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04664572443148161</v>
+        <v>0.04545199109819914</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4961953147381111</v>
+        <v>0.4950646725640081</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
